--- a/hardware/fobos-dut/dut-artix7-a12t-cpg238/Outputs/BOM/BOM_dut-artix7-a12t-cpg238.xlsx
+++ b/hardware/fobos-dut/dut-artix7-a12t-cpg238/Outputs/BOM/BOM_dut-artix7-a12t-cpg238.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="386">
   <si>
     <t>Artix-7 DUT</t>
   </si>
@@ -1138,6 +1138,58 @@
   </si>
   <si>
     <t>R24</t>
+  </si>
+  <si>
+    <t>652-CR0603FX-49R9ELF</t>
+  </si>
+  <si>
+    <t>CR0603-FX-49R9ELF</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 49.9 ohm 1%</t>
+  </si>
+  <si>
+    <t>KDV08FR100ET</t>
+  </si>
+  <si>
+    <t>588-KDV08FR100ET</t>
+  </si>
+  <si>
+    <t>Ohmite</t>
+  </si>
+  <si>
+    <t>Current Sense Resistors - SMD 0.1 ohm 0805 1% 0.25W</t>
+  </si>
+  <si>
+    <t>GRT21BR60J476ME13L</t>
+  </si>
+  <si>
+    <t>81-GRT21BR60J476ME3L</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 47UF 6.3V 20% 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-GRM32ER61A107ME0L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER61A107ME0L </t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 1210 100uF 10V</t>
+  </si>
+  <si>
+    <t>The following components are DNI</t>
+  </si>
+  <si>
+    <t>R37
+R77
+C48
+C49
+C50
+C51
+C52
+C53</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1200,7 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0;[Red]\-0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1176,13 +1228,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1221,18 +1291,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1290,8 +1358,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Result2" xfId="1"/>
@@ -1644,15 +1736,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
@@ -1660,1569 +1752,1628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="28"/>
+      <c r="E1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="E5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1">
-      <c r="A7" s="24" t="s">
+      <c r="E6" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="17" customFormat="1">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" s="18" customFormat="1">
-      <c r="A8" s="24" t="s">
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1">
+      <c r="A8" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="45">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="45">
+      <c r="A9" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>18</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1">
-      <c r="A10" s="24" t="s">
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" s="17" customFormat="1">
+      <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="30">
+      <c r="A13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:10" s="17" customFormat="1" ht="30">
+      <c r="A14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:10" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:8" s="17" customFormat="1" ht="30">
+      <c r="A18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>9</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="16.7" customHeight="1">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="16.7" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="16.7" customHeight="1">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:8" s="17" customFormat="1" ht="16.7" customHeight="1">
+      <c r="A20" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:8" s="17" customFormat="1">
+      <c r="A21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:8" s="17" customFormat="1" ht="30">
+      <c r="A22" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>14</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:8" s="17" customFormat="1">
+      <c r="A23" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>4</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>2</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>885012206087</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" ht="45">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:8" s="17" customFormat="1" ht="45">
+      <c r="A28" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>18</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="18" customFormat="1">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:8" s="17" customFormat="1">
+      <c r="A29" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>8</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="15.4" customHeight="1">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:8" s="17" customFormat="1" ht="15.4" customHeight="1">
+      <c r="A30" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>4</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" ht="15.4" customHeight="1">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:8" s="17" customFormat="1" ht="15.4" customHeight="1">
+      <c r="A31" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="20">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" ht="15.4" customHeight="1">
-      <c r="A32" s="28" t="s">
+      <c r="E31" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="17" customFormat="1" ht="15.4" customHeight="1">
+      <c r="A32" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="B32" s="20">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>1210</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="E32" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>2</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="20">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="20">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="18" customFormat="1">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:8" s="17" customFormat="1">
+      <c r="A37" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>6</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>5</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>2</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>3904</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="20">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="20">
-        <v>1</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B43" s="20">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="20">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="19">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="20">
-        <v>1</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="19">
+        <v>1</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="24" t="s">
+    <row r="46" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="20">
-        <v>1</v>
-      </c>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="20">
-        <v>1</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="19">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="28" t="s">
+    <row r="48" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="18">
-        <v>1</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B50" s="18">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>2</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="26" t="s">
+    <row r="52" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="18">
-        <v>1</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="17">
+        <v>1</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:9" s="17" customFormat="1">
+      <c r="A53" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="18">
-        <v>1</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="19">
+        <v>1</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="24" t="s">
+    <row r="55" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="20">
-        <v>1</v>
-      </c>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="19">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>878321420</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="24" t="s">
+    <row r="56" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>2</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="24" t="s">
+    <row r="57" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="20">
-        <v>1</v>
-      </c>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" ht="30">
-      <c r="A58" s="27" t="s">
+    <row r="58" spans="1:9" s="17" customFormat="1" ht="30">
+      <c r="A58" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>9</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <v>5281</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>5281</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="24" t="s">
+    <row r="59" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="20">
-        <v>1</v>
-      </c>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="28" t="s">
+    <row r="60" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>4</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="F60" s="21" t="s">
+      <c r="D60" s="16"/>
+      <c r="F60" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="24" t="s">
+    <row r="61" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>2</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="19" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
-      <c r="I62" s="14"/>
+      <c r="A62" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
-      <c r="I63" s="14"/>
+      <c r="A63" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
+      <c r="A64" s="35"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="3:9" ht="15" customHeight="1">
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1">
+      <c r="A65" s="35"/>
       <c r="C65"/>
       <c r="D65"/>
     </row>
-    <row r="66" spans="3:9" ht="15" customHeight="1">
+    <row r="66" spans="1:9" ht="15" customHeight="1">
+      <c r="A66" s="35"/>
       <c r="C66"/>
       <c r="D66"/>
     </row>
-    <row r="67" spans="3:9" ht="15" customHeight="1">
+    <row r="67" spans="1:9" ht="15" customHeight="1">
+      <c r="A67" s="35"/>
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="3:9" ht="15" customHeight="1">
+    <row r="68" spans="1:9" ht="15" customHeight="1">
+      <c r="A68" s="35"/>
       <c r="C68"/>
       <c r="D68"/>
     </row>
-    <row r="69" spans="3:9" ht="15" customHeight="1">
+    <row r="69" spans="1:9" ht="15" customHeight="1">
+      <c r="A69" s="35"/>
       <c r="C69"/>
       <c r="D69"/>
     </row>
-    <row r="70" spans="3:9" ht="15" customHeight="1">
+    <row r="70" spans="1:9" ht="15" customHeight="1">
+      <c r="A70" s="35"/>
       <c r="C70"/>
       <c r="D70"/>
     </row>
-    <row r="71" spans="3:9" ht="15" customHeight="1">
+    <row r="71" spans="1:9" ht="15" customHeight="1">
       <c r="C71"/>
       <c r="D71"/>
     </row>
-    <row r="72" spans="3:9" ht="15" customHeight="1">
+    <row r="72" spans="1:9" ht="15" customHeight="1">
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="3:9" ht="15" customHeight="1">
+    <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="3:9" ht="15" customHeight="1">
+    <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="C74"/>
       <c r="D74"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="3:9" ht="15" customHeight="1">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="3:9" ht="15" customHeight="1">
+    <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="C76"/>
       <c r="D76"/>
     </row>
-    <row r="77" spans="3:9" ht="15" customHeight="1">
+    <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="C77"/>
       <c r="D77"/>
     </row>
-    <row r="78" spans="3:9" ht="15" customHeight="1">
+    <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="3:9" ht="15" customHeight="1">
+    <row r="79" spans="1:9" ht="15" customHeight="1">
       <c r="C79"/>
       <c r="D79"/>
     </row>
-    <row r="80" spans="3:9" ht="39.75" customHeight="1">
+    <row r="80" spans="1:9" ht="39.75" customHeight="1">
       <c r="C80"/>
       <c r="D80"/>
     </row>
@@ -3253,10 +3404,10 @@
     <row r="87" spans="3:9" ht="15" customHeight="1">
       <c r="C87"/>
       <c r="D87"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="3:9" ht="15" customHeight="1">
-      <c r="I88" s="14"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="3:9" ht="15" customHeight="1">
       <c r="C89"/>
@@ -3317,8 +3468,9 @@
     <row r="1048483" ht="12.75" customHeight="1"/>
     <row r="1048484" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A63:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3336,15 +3488,15 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -3353,13 +3505,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H6" t="s">
@@ -3371,13 +3523,13 @@
       <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4" t="e">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3" t="e">
         <f>Project!#REF!*B6+Project!#REF!*D6</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="10" t="e">
+      <c r="Q6" s="9" t="e">
         <f t="shared" ref="Q6:Q27" si="0">N6-P6</f>
         <v>#REF!</v>
       </c>
@@ -3389,10 +3541,10 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G7" t="s">
@@ -3407,13 +3559,13 @@
       <c r="J7" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4" t="e">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3" t="e">
         <f>Project!#REF!*B7+Project!#REF!*D7</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="10" t="e">
+      <c r="Q7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3425,10 +3577,10 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G8" t="s">
@@ -3443,13 +3595,13 @@
       <c r="J8" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4" t="e">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3" t="e">
         <f>Project!#REF!*B8+Project!#REF!*D8</f>
         <v>#REF!</v>
       </c>
-      <c r="Q8" s="10" t="e">
+      <c r="Q8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3461,10 +3613,10 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
@@ -3479,13 +3631,13 @@
       <c r="J9" t="s">
         <v>172</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4" t="e">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="e">
         <f>Project!#REF!*B9+Project!#REF!*D9</f>
         <v>#REF!</v>
       </c>
-      <c r="Q9" s="10" t="e">
+      <c r="Q9" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3497,7 +3649,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F10">
@@ -3515,13 +3667,13 @@
       <c r="J10" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4" t="e">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3" t="e">
         <f>Project!#REF!*B10+Project!#REF!*D10</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="10" t="e">
+      <c r="Q10" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3533,13 +3685,13 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>276</v>
       </c>
       <c r="H11" t="s">
@@ -3551,13 +3703,13 @@
       <c r="J11" t="s">
         <v>278</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4" t="e">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3" t="e">
         <f>Project!#REF!*B11+Project!#REF!*D11</f>
         <v>#REF!</v>
       </c>
-      <c r="Q11" s="10" t="e">
+      <c r="Q11" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3569,10 +3721,10 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>260</v>
       </c>
       <c r="G12" t="s">
@@ -3587,13 +3739,13 @@
       <c r="J12" t="s">
         <v>263</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4" t="e">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3" t="e">
         <f>Project!#REF!*B12+Project!#REF!*D12</f>
         <v>#REF!</v>
       </c>
-      <c r="Q12" s="10" t="e">
+      <c r="Q12" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3605,16 +3757,16 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>61303611021</v>
       </c>
       <c r="I13" t="s">
@@ -3623,13 +3775,13 @@
       <c r="J13" t="s">
         <v>326</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4" t="e">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3" t="e">
         <f>Project!#REF!*B13+Project!#REF!*D13</f>
         <v>#REF!</v>
       </c>
-      <c r="Q13" s="10" t="e">
+      <c r="Q13" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3641,10 +3793,10 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
       <c r="G14" t="s">
         <v>250</v>
       </c>
@@ -3657,13 +3809,13 @@
       <c r="J14" t="s">
         <v>253</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4" t="e">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3" t="e">
         <f>Project!#REF!*B14+Project!#REF!*D14</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="10" t="e">
+      <c r="Q14" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3675,13 +3827,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>271</v>
       </c>
       <c r="H15" t="s">
@@ -3693,13 +3845,13 @@
       <c r="J15" t="s">
         <v>274</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4" t="e">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3" t="e">
         <f>Project!#REF!*B15+Project!#REF!*D15</f>
         <v>#REF!</v>
       </c>
-      <c r="Q15" s="10" t="e">
+      <c r="Q15" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3711,16 +3863,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>330</v>
       </c>
       <c r="G16" t="s">
         <v>331</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>61303621021</v>
       </c>
       <c r="I16" t="s">
@@ -3729,13 +3881,13 @@
       <c r="J16" t="s">
         <v>332</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4" t="e">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3" t="e">
         <f>Project!#REF!*B16+Project!#REF!*D16</f>
         <v>#REF!</v>
       </c>
-      <c r="Q16" s="10" t="e">
+      <c r="Q16" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3747,13 +3899,13 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>268</v>
       </c>
       <c r="H17" t="s">
@@ -3765,13 +3917,13 @@
       <c r="J17" t="s">
         <v>270</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4" t="e">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3" t="e">
         <f>Project!#REF!*B17+Project!#REF!*D17</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="10" t="e">
+      <c r="Q17" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3783,10 +3935,10 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
@@ -3801,13 +3953,13 @@
       <c r="J18" t="s">
         <v>150</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4" t="e">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3" t="e">
         <f>Project!#REF!*B18+Project!#REF!*D18</f>
         <v>#REF!</v>
       </c>
-      <c r="Q18" s="10" t="e">
+      <c r="Q18" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3819,34 +3971,34 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4" t="e">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3" t="e">
         <f>Project!#REF!*B19+Project!#REF!*D19</f>
         <v>#REF!</v>
       </c>
-      <c r="Q19" s="10" t="e">
+      <c r="Q19" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3858,10 +4010,10 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G20" t="s">
@@ -3876,28 +4028,28 @@
       <c r="J20" t="s">
         <v>338</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4" t="e">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3" t="e">
         <f>Project!#REF!*B20+Project!#REF!*D20</f>
         <v>#REF!</v>
       </c>
-      <c r="Q20" s="10" t="e">
+      <c r="Q20" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="90">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>339</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
@@ -3912,13 +4064,13 @@
       <c r="J21" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4" t="e">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3" t="e">
         <f>Project!#REF!*B21+Project!#REF!*D21</f>
         <v>#REF!</v>
       </c>
-      <c r="Q21" s="10" t="e">
+      <c r="Q21" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3930,10 +4082,10 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
@@ -3948,13 +4100,13 @@
       <c r="J22" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="4" t="e">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3" t="e">
         <f>Project!#REF!*B22+Project!#REF!*D22</f>
         <v>#REF!</v>
       </c>
-      <c r="Q22" s="10" t="e">
+      <c r="Q22" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -3966,13 +4118,13 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F23">
         <v>1206</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>342</v>
       </c>
       <c r="H23" t="s">
@@ -3984,13 +4136,13 @@
       <c r="J23" t="s">
         <v>345</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4" t="e">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3" t="e">
         <f>Project!#REF!*B23+Project!#REF!*D23</f>
         <v>#REF!</v>
       </c>
-      <c r="Q23" s="10" t="e">
+      <c r="Q23" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -4002,10 +4154,10 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
@@ -4020,13 +4172,13 @@
       <c r="J24" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4" t="e">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3" t="e">
         <f>Project!#REF!*B24+Project!#REF!*D24</f>
         <v>#REF!</v>
       </c>
-      <c r="Q24" s="10" t="e">
+      <c r="Q24" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -4038,13 +4190,13 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F25">
         <v>1210</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>349</v>
       </c>
       <c r="H25" t="s">
@@ -4056,13 +4208,13 @@
       <c r="J25" t="s">
         <v>351</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4" t="e">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3" t="e">
         <f>Project!#REF!*B25+Project!#REF!*D25</f>
         <v>#REF!</v>
       </c>
-      <c r="Q25" s="10" t="e">
+      <c r="Q25" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
@@ -4074,10 +4226,10 @@
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>235</v>
       </c>
       <c r="G26" t="s">
@@ -4092,25 +4244,25 @@
       <c r="J26" t="s">
         <v>239</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4" t="e">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3" t="e">
         <f>Project!#REF!*B26+Project!#REF!*D26</f>
         <v>#REF!</v>
       </c>
-      <c r="Q26" s="10" t="e">
+      <c r="Q26" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4" t="e">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3" t="e">
         <f>Project!#REF!*B27+Project!#REF!*D27</f>
         <v>#REF!</v>
       </c>
-      <c r="Q27" s="10" t="e">
+      <c r="Q27" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
